--- a/Metropolitan Roads/28921/ITP-081-STR-PSDS-Bored Piling Rev 0.xlsx
+++ b/Metropolitan Roads/28921/ITP-081-STR-PSDS-Bored Piling Rev 0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirav\Desktop\Projects\04-Progress Street, South Dandenong\01-ITPs\ITP-081-STR-PSDS-Bored Piling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Metropolitan Roads\28921\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6F1DF9-1848-4243-A01F-1CC35783CA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3E3D8D-820B-4428-9278-388F5A139CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22215" yWindow="-15255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="330" windowWidth="29010" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1443,83 +1443,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1921,7 +1921,7 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1945,107 +1945,107 @@
         <v>1</v>
       </c>
       <c r="B2" s="14"/>
-      <c r="C2" s="50" t="str">
+      <c r="C2" s="66" t="str">
         <f>"ITP-"&amp;C4&amp;"-"&amp;C3</f>
         <v>ITP-081-STR-PSDS-Bored Piling</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="67"/>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="50">
+      <c r="C5" s="66">
         <v>0</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="52">
+      <c r="C6" s="74">
         <v>44537</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="67"/>
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="67"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="67"/>
     </row>
     <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="D12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="22" t="s">
         <v>11</v>
       </c>
@@ -2060,12 +2060,12 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="15" t="s">
         <v>12</v>
       </c>
@@ -2076,12 +2076,12 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="O14" s="1"/>
@@ -2090,15 +2090,15 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="O15" s="1"/>
@@ -2124,43 +2124,43 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60" t="s">
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="74" t="s">
+      <c r="J17" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="73" t="s">
         <v>22</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2170,10 +2170,10 @@
       <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="60"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="73"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
@@ -2181,18 +2181,18 @@
       <c r="A19" s="19">
         <v>1</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:19" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
@@ -2408,18 +2408,18 @@
       <c r="A26" s="19">
         <v>2</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" spans="1:19" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="44" t="s">
@@ -2518,18 +2518,18 @@
       <c r="A30" s="37">
         <v>3</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:19" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A31" s="44" t="s">
@@ -2781,18 +2781,18 @@
       <c r="A39" s="19">
         <v>4</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
     </row>
     <row r="40" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="36">
@@ -2891,18 +2891,18 @@
       <c r="A43" s="19">
         <v>5</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
     </row>
     <row r="44" spans="1:11" ht="182.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20">
@@ -3309,18 +3309,18 @@
       <c r="A57" s="19">
         <v>6</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
     </row>
     <row r="58" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
@@ -3541,46 +3541,46 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="25"/>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="63"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="52"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="63"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="52"/>
     </row>
     <row r="68" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
@@ -3599,16 +3599,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B65:K65"/>
-    <mergeCell ref="B66:K67"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B57:K57"/>
     <mergeCell ref="B43:K43"/>
@@ -3623,13 +3620,16 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="B66:K67"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B30:K30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3647,61 +3647,55 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-427985</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
-      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-427985</Url>
-      <Description>MRPA-1160097302-427985</Description>
-    </_dlc_DocIdUrl>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </me5b5cb8f12249249ca913346c48a983>
-    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j3373299c44a42499a29e1915264a3b5>
-    <TeambinderTransmittal xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <TeambinderNumber xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">TM No.</TeambinderNumber>
-    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </d0c3539471b44cfa8fe7a085a2c8a5d5>
-    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l1532197b8344cb19adf5365ae4ff0ff>
-    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </cc33861001d04fbf92e96c5a2d70a7b6>
-    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
-    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A70E945F2728E4A865DDF9F320753FE" ma:contentTypeVersion="86" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="06fec312cba06fbcf70ba4c04a362f8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2836469c-b43e-4aa1-9b97-2c3e7041e824" xmlns:ns3="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xmlns:ns4="8aefd74c-d14b-451e-bb38-cf3a729b3efa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2161b57cbe0e59f69b87efa28a5d6ef4" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4131,65 +4125,92 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxKeywordTaxHTField xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAll xmlns="67a9c916-b9aa-4dc2-9f16-c44ca415698d" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">MRPA-1160097302-427985</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="8aefd74c-d14b-451e-bb38-cf3a729b3efa">
+      <Url>https://fultonhogan.sharepoint.com/teams/PD05433/_layouts/15/DocIdRedir.aspx?ID=MRPA-1160097302-427985</Url>
+      <Description>MRPA-1160097302-427985</Description>
+    </_dlc_DocIdUrl>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <ReportID xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <Date xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <me5b5cb8f12249249ca913346c48a983 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </me5b5cb8f12249249ca913346c48a983>
+    <j3373299c44a42499a29e1915264a3b5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j3373299c44a42499a29e1915264a3b5>
+    <TeambinderTransmittal xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <Description0 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <TeambinderNumber xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">TM No.</TeambinderNumber>
+    <DeborahCollins xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <d0c3539471b44cfa8fe7a085a2c8a5d5 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d0c3539471b44cfa8fe7a085a2c8a5d5>
+    <Doc_x0020_Type xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <Owner xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <l1532197b8344cb19adf5365ae4ff0ff xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l1532197b8344cb19adf5365ae4ff0ff>
+    <cc33861001d04fbf92e96c5a2d70a7b6 xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </cc33861001d04fbf92e96c5a2d70a7b6>
+    <Count xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824">1</Count>
+    <Revision xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="2836469c-b43e-4aa1-9b97-2c3e7041e824" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B188CD-8224-4CCB-A763-8745A334688A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
+    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
+    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87E081A5-96CD-47EA-95E0-923256609FE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4211,31 +4232,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B188CD-8224-4CCB-A763-8745A334688A}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DC10D4-0034-4DDB-87FC-F3938E87F944}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="2836469c-b43e-4aa1-9b97-2c3e7041e824"/>
-    <ds:schemaRef ds:uri="67a9c916-b9aa-4dc2-9f16-c44ca415698d"/>
-    <ds:schemaRef ds:uri="8aefd74c-d14b-451e-bb38-cf3a729b3efa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB69297-B125-44BE-82F5-1B716E836873}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>